--- a/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C5018B-75E5-455B-AF02-FF81EE40AC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF6D1B0-592A-44FA-A69F-F9EF81380996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F44F305-982C-4C4A-A411-781B53CAEF91}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B94718E-6B8F-4C5A-8561-9AC9A63887FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,67%</t>
   </si>
   <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,33%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>66,45%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,63%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1705 +197,1741 @@
     <t>22,72%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>31,36%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>63,78%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>93,87%</t>
   </si>
   <si>
     <t>21,57%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>16,95%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>28,68%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>83,05%</t>
   </si>
   <si>
     <t>68,43%</t>
   </si>
   <si>
-    <t>71,32%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>15,54%</t>
+    <t>22,13%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>84,46%</t>
+    <t>77,87%</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB0A46-671D-41D4-97C2-2B079E5CE42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEB0D24-DCB3-4621-84D3-BF664CE1870C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3379,10 +3415,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>324</v>
@@ -3391,13 +3427,13 @@
         <v>338100</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3448,13 @@
         <v>501802</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
@@ -3427,13 +3463,13 @@
         <v>413344</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
         <v>895</v>
@@ -3442,13 +3478,13 @@
         <v>915146</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3540,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3516,13 +3552,13 @@
         <v>146780</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -3531,13 +3567,13 @@
         <v>207809</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>333</v>
@@ -3546,13 +3582,13 @@
         <v>354589</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3603,13 @@
         <v>597015</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -3582,13 +3618,13 @@
         <v>575702</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1148</v>
@@ -3597,13 +3633,13 @@
         <v>1172717</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3707,13 @@
         <v>661067</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>985</v>
@@ -3686,13 +3722,13 @@
         <v>1025811</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1622</v>
@@ -3701,13 +3737,13 @@
         <v>1686877</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3758,13 @@
         <v>2615477</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>2312</v>
@@ -3737,22 +3773,22 @@
         <v>2353387</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>4889</v>
       </c>
       <c r="N29" s="7">
-        <v>4968863</v>
+        <v>4968864</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>178</v>
@@ -3800,7 +3836,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7B7C4A-E874-4DD7-90DD-F7B30C169E4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079E27E-B158-410F-B819-204D01151589}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4800,7 +4836,7 @@
         <v>358840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>269</v>
@@ -4877,10 +4913,10 @@
         <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>267</v>
@@ -4889,13 +4925,13 @@
         <v>285548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>470</v>
@@ -4904,13 +4940,13 @@
         <v>505577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4961,13 @@
         <v>442759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>369</v>
@@ -4940,13 +4976,13 @@
         <v>408305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>784</v>
@@ -4955,13 +4991,13 @@
         <v>851064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5053,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5029,13 +5065,13 @@
         <v>212249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>333</v>
@@ -5044,13 +5080,13 @@
         <v>360837</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>534</v>
@@ -5059,13 +5095,13 @@
         <v>573086</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5116,13 @@
         <v>566849</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>424</v>
@@ -5095,13 +5131,13 @@
         <v>463016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>940</v>
@@ -5110,13 +5146,13 @@
         <v>1029865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5220,13 @@
         <v>1002198</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>1416</v>
@@ -5199,13 +5235,13 @@
         <v>1526936</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>2363</v>
@@ -5214,13 +5250,13 @@
         <v>2529134</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5271,13 @@
         <v>2424581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>1882</v>
@@ -5250,13 +5286,13 @@
         <v>2031373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>4144</v>
@@ -5265,13 +5301,13 @@
         <v>4455954</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC12A89-DDEF-4A83-A2DA-C98257C044A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51187D8E-EB0A-4B76-9B70-E82A30A1C9A1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5475,13 +5511,13 @@
         <v>76099</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -5490,13 +5526,13 @@
         <v>101374</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -5505,13 +5541,13 @@
         <v>177474</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5562,13 @@
         <v>217662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5541,13 +5577,13 @@
         <v>187329</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>375</v>
@@ -5556,13 +5592,13 @@
         <v>404990</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5666,13 @@
         <v>97335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>151</v>
@@ -5645,13 +5681,13 @@
         <v>155256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>243</v>
@@ -5660,13 +5696,13 @@
         <v>252591</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5717,13 @@
         <v>405240</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>333</v>
@@ -5696,13 +5732,13 @@
         <v>367828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5711,13 +5747,13 @@
         <v>773068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5821,13 @@
         <v>64325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -5800,13 +5836,13 @@
         <v>87392</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5815,13 +5851,13 @@
         <v>151717</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5872,13 @@
         <v>254240</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>239</v>
@@ -5851,13 +5887,13 @@
         <v>248917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -5866,13 +5902,13 @@
         <v>503157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5976,13 @@
         <v>60989</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -5955,13 +5991,13 @@
         <v>121784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -5970,13 +6006,13 @@
         <v>182773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6027,13 @@
         <v>308975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -6006,13 +6042,13 @@
         <v>265499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>538</v>
@@ -6021,13 +6057,13 @@
         <v>574474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6131,13 @@
         <v>77765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -6110,13 +6146,13 @@
         <v>86915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -6125,13 +6161,13 @@
         <v>164680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6182,13 @@
         <v>133456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>131</v>
@@ -6161,13 +6197,13 @@
         <v>131672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -6176,13 +6212,13 @@
         <v>265128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6286,13 @@
         <v>64398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -6265,13 +6301,13 @@
         <v>71470</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -6280,13 +6316,13 @@
         <v>135868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6337,13 @@
         <v>198725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>195</v>
@@ -6316,13 +6352,13 @@
         <v>201645</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -6331,13 +6367,13 @@
         <v>400370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6441,13 @@
         <v>134726</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -6420,13 +6456,13 @@
         <v>214405</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -6435,13 +6471,13 @@
         <v>349130</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6492,13 @@
         <v>521832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>439</v>
@@ -6471,13 +6507,13 @@
         <v>476889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>901</v>
@@ -6486,13 +6522,13 @@
         <v>998722</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6584,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6560,13 +6596,13 @@
         <v>233031</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>321</v>
@@ -6575,13 +6611,13 @@
         <v>339887</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>542</v>
@@ -6590,13 +6626,13 @@
         <v>572919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6647,13 @@
         <v>545552</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>434</v>
@@ -6626,13 +6662,13 @@
         <v>486280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>963</v>
@@ -6641,13 +6677,13 @@
         <v>1031831</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6751,13 @@
         <v>808668</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>1149</v>
@@ -6730,13 +6766,13 @@
         <v>1178484</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>1913</v>
@@ -6745,13 +6781,13 @@
         <v>1987152</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6802,13 @@
         <v>2585682</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>2189</v>
@@ -6781,13 +6817,13 @@
         <v>2366058</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>4656</v>
@@ -6796,13 +6832,13 @@
         <v>4951740</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB0ACF-6EA2-4EED-A770-810FC27141F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D13E8-B722-4CA4-95A1-265BC07660EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7006,13 +7042,13 @@
         <v>16289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -7021,13 +7057,13 @@
         <v>24018</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -7036,13 +7072,13 @@
         <v>40307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7093,13 @@
         <v>244009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>488</v>
@@ -7072,13 +7108,13 @@
         <v>247385</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
@@ -7087,13 +7123,13 @@
         <v>491393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7197,13 @@
         <v>58097</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>145</v>
@@ -7176,13 +7212,13 @@
         <v>110463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -7194,10 +7230,10 @@
         <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7248,13 @@
         <v>461200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
@@ -7227,13 +7263,13 @@
         <v>444103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>904</v>
@@ -7245,10 +7281,10 @@
         <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7352,13 @@
         <v>39330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -7331,13 +7367,13 @@
         <v>51372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -7346,13 +7382,13 @@
         <v>90702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7403,13 @@
         <v>282910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7382,13 +7418,13 @@
         <v>321912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -7397,13 +7433,13 @@
         <v>604822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7507,13 @@
         <v>51556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -7486,13 +7522,13 @@
         <v>67696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -7501,13 +7537,13 @@
         <v>119253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7558,13 @@
         <v>270684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -7537,13 +7573,13 @@
         <v>360860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>742</v>
@@ -7552,13 +7588,13 @@
         <v>631543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7662,13 @@
         <v>21243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -7641,13 +7677,13 @@
         <v>27163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -7656,13 +7692,13 @@
         <v>48406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7713,13 @@
         <v>175505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -7692,13 +7728,13 @@
         <v>232350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -7707,13 +7743,13 @@
         <v>407854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7817,13 @@
         <v>49834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -7796,13 +7832,13 @@
         <v>65197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -7811,13 +7847,13 @@
         <v>115031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7868,13 @@
         <v>227389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>343</v>
@@ -7847,13 +7883,13 @@
         <v>210425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>642</v>
@@ -7862,13 +7898,13 @@
         <v>437814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7972,13 @@
         <v>33699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -7951,13 +7987,13 @@
         <v>162482</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7966,13 +8002,13 @@
         <v>196181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +8023,13 @@
         <v>594055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="H23" s="7">
         <v>875</v>
@@ -8002,13 +8038,13 @@
         <v>641721</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="M23" s="7">
         <v>1438</v>
@@ -8017,13 +8053,13 @@
         <v>1235776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,7 +8115,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8091,13 +8127,13 @@
         <v>185363</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -8106,13 +8142,13 @@
         <v>274159</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>243</v>
+        <v>603</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -8121,13 +8157,13 @@
         <v>459522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8178,13 @@
         <v>674065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>596</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -8157,13 +8193,13 @@
         <v>594275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>252</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>1321</v>
@@ -8172,13 +8208,13 @@
         <v>1268340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8282,13 @@
         <v>455411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="H28" s="7">
         <v>968</v>
@@ -8261,13 +8297,13 @@
         <v>782550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="M28" s="7">
         <v>1444</v>
@@ -8276,13 +8312,13 @@
         <v>1237961</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8333,13 @@
         <v>2929817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>4399</v>
@@ -8312,28 +8348,28 @@
         <v>3053031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>7299</v>
       </c>
       <c r="N29" s="7">
-        <v>5982848</v>
+        <v>5982847</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>618</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,7 +8411,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF6D1B0-592A-44FA-A69F-F9EF81380996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCD6FD0-CD85-4527-B3E5-254670051997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B94718E-6B8F-4C5A-8561-9AC9A63887FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41DFB6AA-C78C-4073-819F-826272750919}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,67%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,33%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>66,45%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,63%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>22,72%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>31,36%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>68,64%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
   </si>
   <si>
     <t>72,85%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1684 +254,1660 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>27,53%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>62,67%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>84,48%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEB0D24-DCB3-4621-84D3-BF664CE1870C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C5A9CF-B009-43C1-BE8F-22458C3DF452}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3415,10 +3391,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>324</v>
@@ -3427,13 +3403,13 @@
         <v>338100</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3424,13 @@
         <v>501802</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
@@ -3463,13 +3439,13 @@
         <v>413344</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>895</v>
@@ -3478,13 +3454,13 @@
         <v>915146</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3552,13 +3528,13 @@
         <v>146780</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -3567,13 +3543,13 @@
         <v>207809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>333</v>
@@ -3582,13 +3558,13 @@
         <v>354589</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3579,13 @@
         <v>597015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -3618,13 +3594,13 @@
         <v>575702</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1148</v>
@@ -3633,13 +3609,13 @@
         <v>1172717</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3683,13 @@
         <v>661067</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>985</v>
@@ -3722,13 +3698,13 @@
         <v>1025811</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1622</v>
@@ -3737,13 +3713,13 @@
         <v>1686877</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,16 +3731,16 @@
         <v>2577</v>
       </c>
       <c r="D29" s="7">
-        <v>2615477</v>
+        <v>2615476</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>2312</v>
@@ -3773,13 +3749,13 @@
         <v>2353387</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>4889</v>
@@ -3788,13 +3764,13 @@
         <v>4968864</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3782,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3874,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079E27E-B158-410F-B819-204D01151589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC912905-C227-4B27-B16E-78060C4DC37B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4603,10 +4579,10 @@
         <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -4615,13 +4591,13 @@
         <v>93433</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -4630,13 +4606,13 @@
         <v>149514</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4627,13 @@
         <v>156537</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -4666,13 +4642,13 @@
         <v>126158</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -4681,13 +4657,13 @@
         <v>282695</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4731,13 @@
         <v>82993</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -4770,13 +4746,13 @@
         <v>112179</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -4788,10 +4764,10 @@
         <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4782,13 @@
         <v>190988</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -4821,13 +4797,13 @@
         <v>167852</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
@@ -4836,13 +4812,13 @@
         <v>358840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4886,13 @@
         <v>220029</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>267</v>
@@ -4925,13 +4901,13 @@
         <v>285548</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>470</v>
@@ -4940,13 +4916,13 @@
         <v>505577</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4937,13 @@
         <v>442759</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>369</v>
@@ -4976,13 +4952,13 @@
         <v>408305</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>784</v>
@@ -4991,13 +4967,13 @@
         <v>851064</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5029,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5065,13 +5041,13 @@
         <v>212249</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>333</v>
@@ -5080,13 +5056,13 @@
         <v>360837</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>534</v>
@@ -5095,13 +5071,13 @@
         <v>573086</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5092,13 @@
         <v>566849</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>424</v>
@@ -5131,13 +5107,13 @@
         <v>463016</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>940</v>
@@ -5146,13 +5122,13 @@
         <v>1029865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5196,13 @@
         <v>1002198</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>1416</v>
@@ -5235,13 +5211,13 @@
         <v>1526936</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>2363</v>
@@ -5250,13 +5226,13 @@
         <v>2529134</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5247,13 @@
         <v>2424581</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>1882</v>
@@ -5286,13 +5262,13 @@
         <v>2031373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>4144</v>
@@ -5301,13 +5277,13 @@
         <v>4455954</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51187D8E-EB0A-4B76-9B70-E82A30A1C9A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F932D0-877B-491C-9EFD-ABCB5E795E4A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,13 +5487,13 @@
         <v>76099</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -5526,13 +5502,13 @@
         <v>101374</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -5541,13 +5517,13 @@
         <v>177474</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5538,13 @@
         <v>217662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5577,13 +5553,13 @@
         <v>187329</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>375</v>
@@ -5592,13 +5568,13 @@
         <v>404990</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5642,13 @@
         <v>97335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>151</v>
@@ -5681,13 +5657,13 @@
         <v>155256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>243</v>
@@ -5696,13 +5672,13 @@
         <v>252591</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5693,13 @@
         <v>405240</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>333</v>
@@ -5732,13 +5708,13 @@
         <v>367828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5747,13 +5723,13 @@
         <v>773068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5797,13 @@
         <v>64325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -5836,13 +5812,13 @@
         <v>87392</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5851,13 +5827,13 @@
         <v>151717</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5848,13 @@
         <v>254240</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>239</v>
@@ -5887,13 +5863,13 @@
         <v>248917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -5902,13 +5878,13 @@
         <v>503157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5952,13 @@
         <v>60989</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -5991,13 +5967,13 @@
         <v>121784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -6006,13 +5982,13 @@
         <v>182773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6003,13 @@
         <v>308975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -6042,13 +6018,13 @@
         <v>265499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>538</v>
@@ -6057,13 +6033,13 @@
         <v>574474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6107,13 @@
         <v>77765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -6146,13 +6122,13 @@
         <v>86915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -6161,13 +6137,13 @@
         <v>164680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6158,13 @@
         <v>133456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>131</v>
@@ -6197,13 +6173,13 @@
         <v>131672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -6212,13 +6188,13 @@
         <v>265128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6262,13 @@
         <v>64398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -6301,13 +6277,13 @@
         <v>71470</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -6316,13 +6292,13 @@
         <v>135868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6313,13 @@
         <v>198725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>195</v>
@@ -6352,13 +6328,13 @@
         <v>201645</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -6367,13 +6343,13 @@
         <v>400370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6417,13 @@
         <v>134726</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -6456,13 +6432,13 @@
         <v>214405</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -6471,13 +6447,13 @@
         <v>349130</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6468,13 @@
         <v>521832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>439</v>
@@ -6507,13 +6483,13 @@
         <v>476889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>901</v>
@@ -6522,13 +6498,13 @@
         <v>998722</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6560,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6596,13 +6572,13 @@
         <v>233031</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>321</v>
@@ -6611,13 +6587,13 @@
         <v>339887</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>542</v>
@@ -6626,13 +6602,13 @@
         <v>572919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6623,13 @@
         <v>545552</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>434</v>
@@ -6662,13 +6638,13 @@
         <v>486280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>963</v>
@@ -6677,13 +6653,13 @@
         <v>1031831</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6727,13 @@
         <v>808668</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>1149</v>
@@ -6766,13 +6742,13 @@
         <v>1178484</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>1913</v>
@@ -6781,13 +6757,13 @@
         <v>1987152</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6778,13 @@
         <v>2585682</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2189</v>
@@ -6817,13 +6793,13 @@
         <v>2366058</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>4656</v>
@@ -6832,13 +6808,13 @@
         <v>4951740</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D13E8-B722-4CA4-95A1-265BC07660EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27E7478-E3E3-47EF-9D0C-3DDCCDB2A96A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7042,13 +7018,13 @@
         <v>16289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -7057,13 +7033,13 @@
         <v>24018</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -7072,13 +7048,13 @@
         <v>40307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7069,13 @@
         <v>244009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>488</v>
@@ -7108,13 +7084,13 @@
         <v>247385</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
@@ -7123,13 +7099,13 @@
         <v>491393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7173,13 @@
         <v>58097</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>145</v>
@@ -7212,13 +7188,13 @@
         <v>110463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -7230,10 +7206,10 @@
         <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7224,13 @@
         <v>461200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>503</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
@@ -7263,13 +7239,13 @@
         <v>444103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M8" s="7">
         <v>904</v>
@@ -7281,10 +7257,10 @@
         <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7328,13 @@
         <v>39330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -7367,13 +7343,13 @@
         <v>51372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -7382,13 +7358,13 @@
         <v>90702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7379,13 @@
         <v>282910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7418,13 +7394,13 @@
         <v>321912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -7433,13 +7409,13 @@
         <v>604822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>525</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7483,13 @@
         <v>51556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -7522,13 +7498,13 @@
         <v>67696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -7537,13 +7513,13 @@
         <v>119253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7534,13 @@
         <v>270684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -7573,13 +7549,13 @@
         <v>360860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>742</v>
@@ -7588,13 +7564,13 @@
         <v>631543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7638,13 @@
         <v>21243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -7677,13 +7653,13 @@
         <v>27163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -7692,13 +7668,13 @@
         <v>48406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7689,13 @@
         <v>175505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -7728,13 +7704,13 @@
         <v>232350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -7743,13 +7719,13 @@
         <v>407854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7793,13 @@
         <v>49834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -7832,13 +7808,13 @@
         <v>65197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -7847,13 +7823,13 @@
         <v>115031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7844,13 @@
         <v>227389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>343</v>
@@ -7883,13 +7859,13 @@
         <v>210425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>642</v>
@@ -7898,13 +7874,13 @@
         <v>437814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7948,13 @@
         <v>33699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -7987,13 +7963,13 @@
         <v>162482</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -8002,13 +7978,13 @@
         <v>196181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +7999,13 @@
         <v>594055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>875</v>
@@ -8038,13 +8014,13 @@
         <v>641721</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1438</v>
@@ -8053,13 +8029,13 @@
         <v>1235776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,7 +8091,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8127,13 +8103,13 @@
         <v>185363</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -8142,13 +8118,13 @@
         <v>274159</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -8157,13 +8133,13 @@
         <v>459522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8154,13 @@
         <v>674065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>160</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -8193,13 +8169,13 @@
         <v>594275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>1321</v>
@@ -8208,13 +8184,13 @@
         <v>1268340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8258,13 @@
         <v>455411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="H28" s="7">
         <v>968</v>
@@ -8297,13 +8273,13 @@
         <v>782550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="M28" s="7">
         <v>1444</v>
@@ -8312,13 +8288,13 @@
         <v>1237961</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>128</v>
+        <v>612</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8309,13 @@
         <v>2929817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H29" s="7">
         <v>4399</v>
@@ -8348,13 +8324,13 @@
         <v>3053031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>7299</v>
@@ -8363,13 +8339,13 @@
         <v>5982847</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>137</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BA1BAD6-8B2C-45F7-8BD9-283309EFABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4352312-471E-4A24-A8D8-39709C16EDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C87C845-E3BA-4A56-A398-71756CC77EA0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A218A0DC-D563-4B32-94C8-03FB0F0E960D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="626">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>53,35%</t>
@@ -101,7 +101,7 @@
     <t>65,01%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>46,65%</t>
@@ -581,7 +581,58 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2012 (Tasa respuesta: 66,65%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>42,11%</t>
@@ -686,306 +737,294 @@
     <t>49,13%</t>
   </si>
   <si>
-    <t>49,15%</t>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>44,02%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
     <t>42,5%</t>
   </si>
   <si>
@@ -1052,9 +1091,6 @@
     <t>38,7%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
     <t>42,64%</t>
   </si>
   <si>
@@ -1073,9 +1109,6 @@
     <t>61,3%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
     <t>46,02%</t>
   </si>
   <si>
@@ -1424,478 +1457,466 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D79466-5658-41E7-8836-344864233316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A8415D-3AE0-4658-A436-5E68F40947D9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3838,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74F331-74E4-4F93-809F-E398A6F1431A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F670CA-48A4-40E5-BB24-8F36BCD64684}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3956,43 +3977,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D4" s="7">
+        <v>89766</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="I4" s="7">
+        <v>140966</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>210</v>
+      </c>
+      <c r="N4" s="7">
+        <v>230732</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,43 +4028,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D5" s="7">
+        <v>87958</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67717</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="N5" s="7">
+        <v>155676</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,43 +4079,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="D6" s="7">
+        <v>177724</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="I6" s="7">
+        <v>208683</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="N6" s="7">
+        <v>386408</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,10 +4138,10 @@
         <v>133403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>52</v>
@@ -4114,13 +4153,13 @@
         <v>215479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>331</v>
@@ -4129,13 +4168,13 @@
         <v>348882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,28 +4189,28 @@
         <v>183419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>142931</v>
+        <v>142932</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>298</v>
@@ -4180,13 +4219,13 @@
         <v>326350</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4252,7 @@
         <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>358410</v>
+        <v>358411</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4254,13 +4293,13 @@
         <v>106314</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -4269,13 +4308,13 @@
         <v>141824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>234</v>
@@ -4284,13 +4323,13 @@
         <v>248138</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4344,13 @@
         <v>98881</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -4320,13 +4359,13 @@
         <v>97775</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -4335,13 +4374,13 @@
         <v>196656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,49 +4442,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7">
-        <v>207154</v>
+        <v>117388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="I13" s="7">
-        <v>322832</v>
+        <v>181866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" s="7">
+        <v>276</v>
+      </c>
+      <c r="N13" s="7">
+        <v>299254</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M13" s="7">
-        <v>486</v>
-      </c>
-      <c r="N13" s="7">
-        <v>529985</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,49 +4493,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>214337</v>
+        <v>126378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>178522</v>
+        <v>110805</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" s="7">
+        <v>223</v>
+      </c>
+      <c r="N14" s="7">
+        <v>237183</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M14" s="7">
-        <v>371</v>
-      </c>
-      <c r="N14" s="7">
-        <v>392859</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>391</v>
+        <v>222</v>
       </c>
       <c r="D15" s="7">
-        <v>421491</v>
+        <v>243766</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4520,10 +4559,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>466</v>
+        <v>277</v>
       </c>
       <c r="I15" s="7">
-        <v>501354</v>
+        <v>292671</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4535,10 +4574,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>857</v>
+        <v>499</v>
       </c>
       <c r="N15" s="7">
-        <v>922844</v>
+        <v>536437</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4564,13 +4603,13 @@
         <v>56081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -4579,13 +4618,13 @@
         <v>95217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -4594,13 +4633,13 @@
         <v>151298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4654,13 @@
         <v>88981</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -4630,13 +4669,13 @@
         <v>71324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
@@ -4645,13 +4684,13 @@
         <v>160305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4758,13 @@
         <v>87933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -4734,13 +4773,13 @@
         <v>118159</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -4749,13 +4788,13 @@
         <v>206092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4809,13 @@
         <v>88025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -4785,13 +4824,13 @@
         <v>86197</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -4800,13 +4839,13 @@
         <v>174222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4913,13 @@
         <v>242659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>275</v>
@@ -4889,13 +4928,13 @@
         <v>293639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>498</v>
@@ -4904,13 +4943,13 @@
         <v>536298</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4964,13 @@
         <v>154279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>149</v>
@@ -4940,13 +4979,13 @@
         <v>162972</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>293</v>
@@ -4955,13 +4994,13 @@
         <v>317251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5068,13 @@
         <v>221698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>335</v>
@@ -5044,13 +5083,13 @@
         <v>362875</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>545</v>
@@ -5059,13 +5098,13 @@
         <v>584573</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5119,13 @@
         <v>254162</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -5095,13 +5134,13 @@
         <v>227085</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>440</v>
@@ -5110,13 +5149,13 @@
         <v>481247</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5223,13 @@
         <v>1055242</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>1439</v>
@@ -5199,13 +5238,13 @@
         <v>1550023</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M28" s="7">
         <v>2436</v>
@@ -5214,13 +5253,13 @@
         <v>2605265</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5274,13 @@
         <v>1082084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>904</v>
@@ -5250,10 +5289,10 @@
         <v>966807</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>35</v>
@@ -5265,13 +5304,13 @@
         <v>2048891</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2E8A0F-2014-4E63-9D6D-85AC8D25DE12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5886C2D3-66AE-4CEC-A0DB-D24C11A07586}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,7 +5407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5475,13 +5514,13 @@
         <v>78449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -5490,13 +5529,13 @@
         <v>101374</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>170</v>
@@ -5505,13 +5544,13 @@
         <v>179823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5565,13 @@
         <v>95012</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -5541,13 +5580,13 @@
         <v>98877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>180</v>
@@ -5556,13 +5595,13 @@
         <v>193889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5669,13 @@
         <v>101468</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>151</v>
@@ -5648,10 +5687,10 @@
         <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -5660,13 +5699,13 @@
         <v>256725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5720,13 @@
         <v>160753</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>145</v>
@@ -5699,10 +5738,10 @@
         <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -5711,13 +5750,13 @@
         <v>327817</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5824,13 @@
         <v>68858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -5800,13 +5839,13 @@
         <v>91130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
@@ -5815,13 +5854,13 @@
         <v>159988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5875,13 @@
         <v>108791</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -5851,13 +5890,13 @@
         <v>121026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -5866,13 +5905,13 @@
         <v>229817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5979,13 @@
         <v>65261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -5955,13 +5994,13 @@
         <v>124275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>180</v>
@@ -5970,13 +6009,13 @@
         <v>189536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6030,13 @@
         <v>126255</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -6006,13 +6045,13 @@
         <v>131382</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>242</v>
@@ -6021,13 +6060,13 @@
         <v>257637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6134,13 @@
         <v>78766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -6110,13 +6149,13 @@
         <v>88738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -6125,13 +6164,13 @@
         <v>167504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6185,13 @@
         <v>55036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -6161,13 +6200,13 @@
         <v>56780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>112</v>
@@ -6176,13 +6215,13 @@
         <v>111816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6289,13 @@
         <v>64398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -6265,13 +6304,13 @@
         <v>71470</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -6280,13 +6319,13 @@
         <v>135868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6340,13 @@
         <v>96823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -6316,28 +6355,28 @@
         <v>100247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>196</v>
       </c>
       <c r="N20" s="7">
-        <v>197070</v>
+        <v>197069</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6418,7 @@
         <v>327</v>
       </c>
       <c r="N21" s="7">
-        <v>332938</v>
+        <v>332937</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6405,10 +6444,10 @@
         <v>143345</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>52</v>
@@ -6420,13 +6459,13 @@
         <v>220464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>338</v>
@@ -6435,13 +6474,13 @@
         <v>363810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6495,13 @@
         <v>196933</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -6471,13 +6510,13 @@
         <v>223038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="M23" s="7">
         <v>379</v>
@@ -6486,13 +6525,13 @@
         <v>419970</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6599,13 @@
         <v>237865</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>325</v>
@@ -6575,13 +6614,13 @@
         <v>344266</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>551</v>
@@ -6590,13 +6629,13 @@
         <v>582130</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6650,13 @@
         <v>218915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>206</v>
@@ -6626,13 +6665,13 @@
         <v>239633</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>425</v>
@@ -6641,13 +6680,13 @@
         <v>458549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6754,13 @@
         <v>838411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -6730,13 +6769,13 @@
         <v>1196973</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>1959</v>
@@ -6745,13 +6784,13 @@
         <v>2035384</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6805,13 @@
         <v>1058517</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>1015</v>
@@ -6781,13 +6820,13 @@
         <v>1138047</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M29" s="7">
         <v>2064</v>
@@ -6796,13 +6835,13 @@
         <v>2196564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA05098F-77EB-4CA3-8D38-C6BF69EF820A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2B18-6C89-4581-BA50-01A879245A1E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7003,46 +7042,46 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>10046</v>
+        <v>11419</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>13340</v>
+        <v>13940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>23387</v>
+        <v>25360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,46 +7093,46 @@
         <v>318</v>
       </c>
       <c r="D5" s="7">
-        <v>250252</v>
+        <v>300024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H5" s="7">
         <v>508</v>
       </c>
       <c r="I5" s="7">
-        <v>258063</v>
+        <v>275695</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>826</v>
       </c>
       <c r="N5" s="7">
-        <v>508313</v>
+        <v>575717</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,7 +7144,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7120,7 +7159,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7135,7 +7174,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7158,46 +7197,46 @@
         <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>29903</v>
+        <v>28666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>69388</v>
+        <v>63856</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>99291</v>
+        <v>92521</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,46 +7248,46 @@
         <v>354</v>
       </c>
       <c r="D8" s="7">
-        <v>489394</v>
+        <v>489724</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="H8" s="7">
         <v>632</v>
       </c>
       <c r="I8" s="7">
-        <v>485178</v>
+        <v>451113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="M8" s="7">
         <v>986</v>
       </c>
       <c r="N8" s="7">
-        <v>974573</v>
+        <v>940838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,7 +7299,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7275,7 +7314,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7290,7 +7329,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7313,46 +7352,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>17796</v>
+        <v>17142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>25913</v>
+        <v>24151</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>43709</v>
+        <v>41293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,46 +7403,46 @@
         <v>338</v>
       </c>
       <c r="D11" s="7">
-        <v>304444</v>
+        <v>298908</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>500</v>
       </c>
       <c r="I11" s="7">
-        <v>347371</v>
+        <v>324977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>838</v>
       </c>
       <c r="N11" s="7">
-        <v>651815</v>
+        <v>623885</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,7 +7454,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7430,7 +7469,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7445,7 +7484,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7468,46 +7507,46 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>27873</v>
+        <v>26815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>51367</v>
+        <v>47556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>79240</v>
+        <v>74371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,46 +7558,46 @@
         <v>269</v>
       </c>
       <c r="D14" s="7">
-        <v>294367</v>
+        <v>285742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>529</v>
       </c>
       <c r="I14" s="7">
-        <v>377189</v>
+        <v>428162</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>798</v>
       </c>
       <c r="N14" s="7">
-        <v>671556</v>
+        <v>713903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,7 +7609,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7585,7 +7624,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7600,7 +7639,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7623,46 +7662,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>16017</v>
+        <v>14546</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>13856</v>
+        <v>12362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>29873</v>
+        <v>26908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,46 +7713,46 @@
         <v>258</v>
       </c>
       <c r="D17" s="7">
-        <v>180731</v>
+        <v>164196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>466</v>
       </c>
       <c r="I17" s="7">
-        <v>245657</v>
+        <v>246417</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
       </c>
       <c r="N17" s="7">
-        <v>426387</v>
+        <v>410613</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,7 +7764,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7740,7 +7779,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7755,7 +7794,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7778,46 +7817,46 @@
         <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>30690</v>
+        <v>30140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>33549</v>
+        <v>31309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
       </c>
       <c r="N19" s="7">
-        <v>64239</v>
+        <v>61449</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,46 +7868,46 @@
         <v>333</v>
       </c>
       <c r="D20" s="7">
-        <v>246533</v>
+        <v>239496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H20" s="7">
         <v>411</v>
       </c>
       <c r="I20" s="7">
-        <v>242073</v>
+        <v>225747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>744</v>
       </c>
       <c r="N20" s="7">
-        <v>488606</v>
+        <v>465243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,7 +7919,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7895,7 +7934,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7910,7 +7949,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7933,46 +7972,46 @@
         <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>19339</v>
+        <v>18990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>515</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>139699</v>
+        <v>232055</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
       </c>
       <c r="N22" s="7">
-        <v>159038</v>
+        <v>251044</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,46 +8023,46 @@
         <v>579</v>
       </c>
       <c r="D23" s="7">
-        <v>608415</v>
+        <v>605289</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>908</v>
       </c>
       <c r="I23" s="7">
-        <v>664504</v>
+        <v>617210</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M23" s="7">
         <v>1487</v>
       </c>
       <c r="N23" s="7">
-        <v>1272919</v>
+        <v>1222500</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,7 +8074,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8050,7 +8089,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8065,7 +8104,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8088,46 +8127,46 @@
         <v>126</v>
       </c>
       <c r="D25" s="7">
-        <v>141051</v>
+        <v>119798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H25" s="7">
         <v>275</v>
       </c>
       <c r="I25" s="7">
-        <v>230706</v>
+        <v>191945</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>401</v>
       </c>
       <c r="N25" s="7">
-        <v>371756</v>
+        <v>311743</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,46 +8178,46 @@
         <v>636</v>
       </c>
       <c r="D26" s="7">
-        <v>718377</v>
+        <v>808922</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H26" s="7">
         <v>787</v>
       </c>
       <c r="I26" s="7">
-        <v>637728</v>
+        <v>525786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
       </c>
       <c r="N26" s="7">
-        <v>1356106</v>
+        <v>1334709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,7 +8229,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8205,7 +8244,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8220,7 +8259,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8243,46 +8282,46 @@
         <v>291</v>
       </c>
       <c r="D28" s="7">
-        <v>292715</v>
+        <v>267516</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H28" s="7">
         <v>626</v>
       </c>
       <c r="I28" s="7">
-        <v>577818</v>
+        <v>617174</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>607</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>917</v>
       </c>
       <c r="N28" s="7">
-        <v>870533</v>
+        <v>884690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8294,46 +8333,46 @@
         <v>3085</v>
       </c>
       <c r="D29" s="7">
-        <v>3092513</v>
+        <v>3192301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>4741</v>
       </c>
       <c r="I29" s="7">
-        <v>3257763</v>
+        <v>3095106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>614</v>
+        <v>285</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>7826</v>
       </c>
       <c r="N29" s="7">
-        <v>6350276</v>
+        <v>6287407</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8345,7 +8384,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8360,7 +8399,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8375,7 +8414,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
